--- a/DDD.xlsx
+++ b/DDD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eleve\ProjetWeb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EBC0806-5992-4D0B-A1A4-8E436E8DF122}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32957686-84F3-472A-B2D8-82EC529D40F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{8DE6B4C5-373B-4052-8B21-37A355A903DA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="62">
   <si>
     <t>Entité</t>
   </si>
@@ -208,6 +208,9 @@
   </si>
   <si>
     <t>dateEchéance</t>
+  </si>
+  <si>
+    <t>coucou</t>
   </si>
 </sst>
 </file>
@@ -597,7 +600,7 @@
   <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -646,6 +649,9 @@
       <c r="E2">
         <v>10</v>
       </c>
+      <c r="F2" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">

--- a/DDD.xlsx
+++ b/DDD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eleve\ProjetWeb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32957686-84F3-472A-B2D8-82EC529D40F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A96F3414-9200-47C4-A228-750EBB31A111}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{8DE6B4C5-373B-4052-8B21-37A355A903DA}"/>
   </bookViews>
@@ -600,7 +600,7 @@
   <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,9 +649,6 @@
       <c r="E2">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -721,6 +718,9 @@
       </c>
       <c r="B11" t="s">
         <v>21</v>
+      </c>
+      <c r="F11" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">

--- a/DDD.xlsx
+++ b/DDD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eleve\ProjetWeb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A96F3414-9200-47C4-A228-750EBB31A111}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B967E7E-033B-429B-B49B-6DBB500D83F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{8DE6B4C5-373B-4052-8B21-37A355A903DA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="61">
   <si>
     <t>Entité</t>
   </si>
@@ -208,9 +208,6 @@
   </si>
   <si>
     <t>dateEchéance</t>
-  </si>
-  <si>
-    <t>coucou</t>
   </si>
 </sst>
 </file>
@@ -600,7 +597,7 @@
   <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -719,9 +716,6 @@
       <c r="B11" t="s">
         <v>21</v>
       </c>
-      <c r="F11" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">

--- a/DDD.xlsx
+++ b/DDD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eleve\ProjetWeb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B967E7E-033B-429B-B49B-6DBB500D83F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD4E5A59-1362-4CEF-8C75-A0B9C45DC6E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{8DE6B4C5-373B-4052-8B21-37A355A903DA}"/>
   </bookViews>
@@ -597,7 +597,7 @@
   <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/DDD.xlsx
+++ b/DDD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eleve\ProjetWeb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD4E5A59-1362-4CEF-8C75-A0B9C45DC6E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A82678-B4B8-46AC-940F-2B736BDAE2AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{8DE6B4C5-373B-4052-8B21-37A355A903DA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="62">
   <si>
     <t>Entité</t>
   </si>
@@ -208,6 +208,9 @@
   </si>
   <si>
     <t>dateEchéance</t>
+  </si>
+  <si>
+    <t>Date de la vente du matériel</t>
   </si>
 </sst>
 </file>
@@ -597,7 +600,7 @@
   <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,6 +654,9 @@
       <c r="B3" t="s">
         <v>10</v>
       </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">

--- a/DDD.xlsx
+++ b/DDD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eleve\ProjetWeb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A82678-B4B8-46AC-940F-2B736BDAE2AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3056EC03-E5FF-4D34-BF52-BF63E65072BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{8DE6B4C5-373B-4052-8B21-37A355A903DA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="104">
   <si>
     <t>Entité</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Numéro de série du matériel</t>
   </si>
   <si>
-    <t>Entier</t>
-  </si>
-  <si>
     <t>dateVente</t>
   </si>
   <si>
@@ -96,9 +93,6 @@
     <t>raisonSociale</t>
   </si>
   <si>
-    <t>SIREN</t>
-  </si>
-  <si>
     <t>codeApe</t>
   </si>
   <si>
@@ -117,9 +111,6 @@
     <t>dureeDeplacement</t>
   </si>
   <si>
-    <t>Posseder</t>
-  </si>
-  <si>
     <t>numSerie</t>
   </si>
   <si>
@@ -147,9 +138,6 @@
     <t>Technicien</t>
   </si>
   <si>
-    <t>telMobile</t>
-  </si>
-  <si>
     <t>Qualification</t>
   </si>
   <si>
@@ -183,27 +171,6 @@
     <t>Agence</t>
   </si>
   <si>
-    <t>numAgence</t>
-  </si>
-  <si>
-    <t>nomAgence</t>
-  </si>
-  <si>
-    <t>adresseAgence</t>
-  </si>
-  <si>
-    <t>telAgence</t>
-  </si>
-  <si>
-    <t>faxAgence</t>
-  </si>
-  <si>
-    <t>Contrat</t>
-  </si>
-  <si>
-    <t>numContrat</t>
-  </si>
-  <si>
     <t>dateSignature</t>
   </si>
   <si>
@@ -211,6 +178,165 @@
   </si>
   <si>
     <t>Date de la vente du matériel</t>
+  </si>
+  <si>
+    <t>Date de l'installation</t>
+  </si>
+  <si>
+    <t>prix de Vente</t>
+  </si>
+  <si>
+    <t>Emplacement du matériel</t>
+  </si>
+  <si>
+    <t>Clé référencant le type du matériel</t>
+  </si>
+  <si>
+    <t>Nom du type de matériel</t>
+  </si>
+  <si>
+    <t>Code de la famille du matériel</t>
+  </si>
+  <si>
+    <t>Nom de la famille du matériel</t>
+  </si>
+  <si>
+    <t>Numéro du client</t>
+  </si>
+  <si>
+    <t>Numéro SIREN</t>
+  </si>
+  <si>
+    <t>Numéro codeApe</t>
+  </si>
+  <si>
+    <t>Adresse du client</t>
+  </si>
+  <si>
+    <t>Numéro de tel du client</t>
+  </si>
+  <si>
+    <t>fax du client</t>
+  </si>
+  <si>
+    <t>Email du client</t>
+  </si>
+  <si>
+    <t>Temps entre le client et l'agence</t>
+  </si>
+  <si>
+    <t>Distance entre le client et l'agence</t>
+  </si>
+  <si>
+    <t>Numéro de l'intervention</t>
+  </si>
+  <si>
+    <t>Date de la visite</t>
+  </si>
+  <si>
+    <t>Heure de la visite</t>
+  </si>
+  <si>
+    <t>Numéro de la série de matériel</t>
+  </si>
+  <si>
+    <t>Numér de l'intervention</t>
+  </si>
+  <si>
+    <t>Temps passé pour l'intervention</t>
+  </si>
+  <si>
+    <t>Commentaire sur l'intervention</t>
+  </si>
+  <si>
+    <t>Qualification du technicien</t>
+  </si>
+  <si>
+    <t>Date de l'obtention</t>
+  </si>
+  <si>
+    <t>Matricule de l'employé</t>
+  </si>
+  <si>
+    <t>Nom de l'employé</t>
+  </si>
+  <si>
+    <t>Prenom de l'employé</t>
+  </si>
+  <si>
+    <t>Adresse de l'employé</t>
+  </si>
+  <si>
+    <t>Date de l'embauche</t>
+  </si>
+  <si>
+    <t>code de la Région</t>
+  </si>
+  <si>
+    <t>Nom de la Région</t>
+  </si>
+  <si>
+    <t>Numéro de l'Agence</t>
+  </si>
+  <si>
+    <t>Nom de l'agence</t>
+  </si>
+  <si>
+    <t>Adresse de l'Agence</t>
+  </si>
+  <si>
+    <t>Téléphone de l'Agence</t>
+  </si>
+  <si>
+    <t>Fax de l'Agence</t>
+  </si>
+  <si>
+    <t>Numéro du contrat</t>
+  </si>
+  <si>
+    <t>date Signature</t>
+  </si>
+  <si>
+    <t>date de l'Échéance du contrat</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Varchar</t>
+  </si>
+  <si>
+    <t>varchar</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Double</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Mobile du technicien</t>
+  </si>
+  <si>
+    <t>ContratMaintenance</t>
+  </si>
+  <si>
+    <t>numéroAgence</t>
+  </si>
+  <si>
+    <t>siren</t>
+  </si>
+  <si>
+    <t>distanceKM</t>
+  </si>
+  <si>
+    <t>numéroContrat</t>
+  </si>
+  <si>
+    <t>Clé PRIMAIRE</t>
   </si>
 </sst>
 </file>
@@ -286,8 +412,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F2BA411D-1B16-4452-A923-2D51157AE74F}" name="Tableau2" displayName="Tableau2" ref="A1:F49" totalsRowShown="0">
-  <autoFilter ref="A1:F49" xr:uid="{BD047E4B-F107-4651-BFFB-0814CCCFC4F3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F2BA411D-1B16-4452-A923-2D51157AE74F}" name="Tableau2" displayName="Tableau2" ref="A1:F45" totalsRowShown="0">
+  <autoFilter ref="A1:F45" xr:uid="{BD047E4B-F107-4651-BFFB-0814CCCFC4F3}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{EC28F7EB-79A2-44E3-808A-0EC3E3BABCF8}" name="Entité"/>
     <tableColumn id="2" xr3:uid="{B6E6F7E9-2A09-4026-9FE0-41C0E7B035D5}" name="Nom"/>
@@ -597,20 +723,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{408DDB82-CCA3-402C-86AE-36F20697C229}">
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" customWidth="1"/>
-    <col min="3" max="3" width="29.5703125" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="31.42578125" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -644,328 +770,669 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="E2">
         <v>10</v>
       </c>
+      <c r="F2" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>50</v>
+      </c>
+      <c r="D3" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5">
+        <v>5.2</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="1">
+        <v>255</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="s">
-        <v>15</v>
+      <c r="C7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" s="1">
+        <v>255</v>
+      </c>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
         <v>17</v>
       </c>
-      <c r="B9" t="s">
-        <v>18</v>
+      <c r="C9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" s="1">
+        <v>255</v>
+      </c>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
         <v>20</v>
       </c>
-      <c r="B11" t="s">
-        <v>21</v>
+      <c r="C11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12">
+        <v>255</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>23</v>
+        <v>100</v>
+      </c>
+      <c r="C13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13">
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14">
+        <v>255</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15">
+        <v>255</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16">
+        <v>255</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>27</v>
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17">
+        <v>255</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E21">
+        <v>10</v>
+      </c>
+      <c r="F21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="C24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>30</v>
       </c>
-      <c r="B20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" t="s">
-        <v>31</v>
+      <c r="C25" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" t="s">
+        <v>92</v>
+      </c>
+      <c r="E25">
+        <v>10</v>
+      </c>
+      <c r="F25" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27" s="1">
+        <v>255</v>
+      </c>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" t="s">
+        <v>92</v>
+      </c>
+      <c r="E28">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1" t="s">
+      <c r="C29" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" t="s">
+        <v>92</v>
+      </c>
+      <c r="E29">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="C30" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B31" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+      <c r="C31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" t="s">
+        <v>92</v>
+      </c>
+      <c r="E31">
+        <v>10</v>
+      </c>
+      <c r="F31" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B32" t="s">
-        <v>44</v>
+      <c r="C32" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" t="s">
+        <v>92</v>
+      </c>
+      <c r="E32">
+        <v>255</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>45</v>
+        <v>42</v>
+      </c>
+      <c r="C33" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" t="s">
+        <v>92</v>
+      </c>
+      <c r="E33">
+        <v>255</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" t="s">
+        <v>79</v>
+      </c>
+      <c r="D34" t="s">
+        <v>92</v>
+      </c>
+      <c r="E34">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E35" s="1">
+        <v>255</v>
+      </c>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" t="s">
+        <v>81</v>
+      </c>
+      <c r="D36" t="s">
+        <v>92</v>
+      </c>
+      <c r="E36">
+        <v>10</v>
+      </c>
+      <c r="F36" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1" t="s">
+      <c r="C37" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E37" s="1">
+        <v>10</v>
+      </c>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
+      <c r="B38" t="s">
+        <v>99</v>
+      </c>
+      <c r="C38" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" t="s">
+        <v>92</v>
+      </c>
+      <c r="E38">
+        <v>10</v>
+      </c>
+      <c r="F38" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>41</v>
+      </c>
+      <c r="C39" t="s">
+        <v>84</v>
+      </c>
+      <c r="D39" t="s">
+        <v>92</v>
+      </c>
+      <c r="E39">
+        <v>255</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>53</v>
+        <v>23</v>
+      </c>
+      <c r="C40" t="s">
+        <v>85</v>
+      </c>
+      <c r="D40" t="s">
+        <v>92</v>
+      </c>
+      <c r="E40">
+        <v>255</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="C41" t="s">
+        <v>86</v>
+      </c>
+      <c r="D41" t="s">
+        <v>92</v>
+      </c>
+      <c r="E41">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E42" s="1">
+        <v>255</v>
+      </c>
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B43" t="s">
+        <v>102</v>
+      </c>
+      <c r="C43" t="s">
+        <v>88</v>
+      </c>
+      <c r="D43" t="s">
+        <v>92</v>
+      </c>
+      <c r="E43">
+        <v>10</v>
+      </c>
+      <c r="F43" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="B44" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
+        <v>48</v>
+      </c>
+      <c r="C44" t="s">
+        <v>89</v>
+      </c>
+      <c r="D44" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
